--- a/biology/Botanique/Mangifera/Mangifera.xlsx
+++ b/biology/Botanique/Mangifera/Mangifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mangifera est un genre de plantes de la famille des Anacardiacées. Les espèces produisent des mangues. Seule l'espèce Mangifera indica, le manguier, est cultivée.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (10 septembre 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (10 septembre 2020) :
 Mangifera altissima Blanco
 Mangifera blommesteinii Kosterm.
 Mangifera caesia Jack ex Wallich
@@ -538,7 +552,7 @@
 Mangifera sylvatica Roxburgh
 Mangifera torquenda Kosterm.
 Mangifera zeylanica (Blume) Hook
-Selon Catalogue of Life                                   (10 septembre 2020)[3] :
+Selon Catalogue of Life                                   (10 septembre 2020) :
 Mangifera acutigemma A.J.G.H.Kostermans
 Mangifera altissima Blanco
 Mangifera andamanica King
@@ -602,7 +616,7 @@
 Mangifera sylvatica Roxb.
 Mangifera timorensis Bl.
 Mangifera transversalis A.J.G.H.Kostermans
-Selon Tropicos                                           (10 septembre 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (10 septembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 Mangifera acutigemma Kosterm.
 Mangifera africana Oliv.
 Mangifera altissima Blanco
